--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/103.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/103.xlsx
@@ -479,13 +479,13 @@
         <v>-15.16705186318523</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.85215764748511</v>
+        <v>-14.69226267790266</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.635357900915253</v>
+        <v>-5.712961106913793</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.066291986751387</v>
+        <v>-7.018521500654761</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.10160382169547</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.7592714060206</v>
+        <v>-14.64041476007903</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.742876939932446</v>
+        <v>-5.781803212606823</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.263700306023679</v>
+        <v>-7.220061030729596</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.13819296053893</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.03631675814807</v>
+        <v>-14.94082467602349</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.791972346890006</v>
+        <v>-5.835244946669071</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.060914079197781</v>
+        <v>-7.028685745931077</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-15.27020888655664</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.85564350938123</v>
+        <v>-14.78373599638264</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.377545901802227</v>
+        <v>-5.445473763211143</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.020247320078782</v>
+        <v>-6.980519250278231</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-15.48463110926867</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.95274407476502</v>
+        <v>-14.87973653522138</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.334385749181101</v>
+        <v>-5.383598492303467</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.949738063044135</v>
+        <v>-6.958166710882696</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.75264168227983</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.31892580009009</v>
+        <v>-15.22603955862557</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.236097155128643</v>
+        <v>-5.273444278585007</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.708309125942141</v>
+        <v>-6.736904927106727</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.052451197161</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.56548819440234</v>
+        <v>-15.47980834905966</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.153262711782504</v>
+        <v>-5.202206559527189</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.754930695425042</v>
+        <v>-6.788078161982726</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.34711343922101</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.80310859515501</v>
+        <v>-15.70926410834458</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.913706264310538</v>
+        <v>-4.939119322004762</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.35285388168309</v>
+        <v>-6.397602961535962</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.61133534330178</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.16519822173246</v>
+        <v>-16.05207149183892</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.728828469638149</v>
+        <v>-4.77499047247556</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.296600968672366</v>
+        <v>-6.351093839211</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.8105936181031</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.28823496854524</v>
+        <v>-16.17511801666543</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.856900893523854</v>
+        <v>-4.885594474825777</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.905284859044494</v>
+        <v>-5.963708491104128</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-16.93002837437254</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.70846466478405</v>
+        <v>-16.60133674631621</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.511864122898197</v>
+        <v>-4.554672267024904</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.772655880758825</v>
+        <v>-5.868514638398427</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-16.95094348342699</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.08333415531162</v>
+        <v>-16.95964717058554</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.213742262167458</v>
+        <v>-4.286290235065609</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.970792662054287</v>
+        <v>-6.048596317334372</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-16.88085695199547</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.27413742630671</v>
+        <v>-17.14087287712834</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.904385463656548</v>
+        <v>-3.970890624067192</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.756316819809595</v>
+        <v>-5.833949359849337</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-16.7268098767571</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.47245510085625</v>
+        <v>-17.34266663556026</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.770988911292773</v>
+        <v>-3.826694255534402</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.53232208119502</v>
+        <v>-5.572191932194712</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-16.5153037245208</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.8816405305827</v>
+        <v>-17.7812594415912</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.301121128334178</v>
+        <v>-3.358679406178368</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.199488271709185</v>
+        <v>-5.245650274546596</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-16.26629941260165</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.54299115649088</v>
+        <v>-18.41562274959401</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.123889740401645</v>
+        <v>-3.18662058751103</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.16258604787771</v>
+        <v>-5.193572573400218</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-16.00434013340343</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.00032352584271</v>
+        <v>-18.88621899457578</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.751205635943585</v>
+        <v>-2.807135874501092</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.953170327740275</v>
+        <v>-4.94189627790517</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-15.74183593654793</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.41969275687294</v>
+        <v>-19.3074216031811</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.48508721416367</v>
+        <v>-2.525235738554776</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.669109250758783</v>
+        <v>-4.660929942270434</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-15.48848609322064</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.82472741976937</v>
+        <v>-19.73414878954604</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.1115328664833</v>
+        <v>-2.149774678196309</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.651572383127159</v>
+        <v>-4.617652453484503</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-15.2465197318091</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.37360644270418</v>
+        <v>-20.25299953230425</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.936188635201396</v>
+        <v>-1.928571562502742</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.605244154056273</v>
+        <v>-4.584402317782614</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-15.01622557500783</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.7126199568698</v>
+        <v>-20.61331444938902</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.677530837900393</v>
+        <v>-1.700523837195494</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.459175295893456</v>
+        <v>-4.418078304170169</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-14.79526982859528</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.07616161848673</v>
+        <v>-20.96562606223264</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.516555397800352</v>
+        <v>-1.545791658864503</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.347407709908913</v>
+        <v>-4.326692987813794</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-14.58013121795105</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.50061541665855</v>
+        <v>-21.42334955213382</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.361925888613566</v>
+        <v>-1.406083398635541</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.392044342603846</v>
+        <v>-4.403108165143674</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-14.36984020463768</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.96294924003523</v>
+        <v>-21.86626424023512</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.165558927803927</v>
+        <v>-1.204494978492037</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.405767784879276</v>
+        <v>-4.407562050399434</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-14.15963749290876</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.86545266509521</v>
+        <v>-21.75983544974925</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.013061025611116</v>
+        <v>-1.019289620359565</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.485008808178234</v>
+        <v>-4.496664200548959</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-13.95143610484843</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.18045137753054</v>
+        <v>-22.06919224826015</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.8849641566910772</v>
+        <v>-0.8879415618730284</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.511296998101636</v>
+        <v>-4.505904423527428</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-13.74007655232868</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.19009249907209</v>
+        <v>-22.0917941270059</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.668894498207771</v>
+        <v>-0.6844953191200966</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.463159836489991</v>
+        <v>-4.466381692015288</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-13.5278880671193</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.38266559055301</v>
+        <v>-22.31616043014236</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.751611605389105</v>
+        <v>-0.7650954863280565</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.218010365162274</v>
+        <v>-4.23708238095011</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-13.31031286869645</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.55568265456626</v>
+        <v>-22.48833658497451</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5658048994120024</v>
+        <v>-0.5544232914258245</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.434075134638714</v>
+        <v>-4.455806770162151</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-13.09124048851354</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.5538737220255</v>
+        <v>-22.49504919140278</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.7605535989486925</v>
+        <v>-0.7538361035135513</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.180819689925652</v>
+        <v>-4.229264858969913</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.8675866227963</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.48802368853503</v>
+        <v>-22.41720153506089</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6442490145916527</v>
+        <v>-0.6496904792345292</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.158281368269175</v>
+        <v>-4.216480106012931</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.64386605720909</v>
       </c>
       <c r="E33" t="n">
-        <v>-22.181756742364</v>
+        <v>-22.14322647924585</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6483557803598613</v>
+        <v>-0.638426207413157</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.972787558731555</v>
+        <v>-4.052952604328359</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-12.41858786892092</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.00025236242979</v>
+        <v>-21.9460772773375</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.786387111233471</v>
+        <v>-0.770580952032735</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.537475276308315</v>
+        <v>-3.652019818193265</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-12.19781855511026</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.82094314657882</v>
+        <v>-21.78795701724774</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.766728414621606</v>
+        <v>-0.7769122159253899</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.413812736616568</v>
+        <v>-3.546920837575194</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.98007034050136</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.89465959211816</v>
+        <v>-21.84803313362839</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.9677839330166164</v>
+        <v>-0.9451624982434009</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.372085063007449</v>
+        <v>-3.483764646868387</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.77186187485494</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.40504022141723</v>
+        <v>-21.35702039597039</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.071020202018393</v>
+        <v>-1.04078658355339</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.267049639478648</v>
+        <v>-3.406088105766842</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-11.56949042289219</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.36304365243043</v>
+        <v>-21.30792498901283</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.321293352542636</v>
+        <v>-1.29382202295744</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.935100740235724</v>
+        <v>-3.043705138777372</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-11.3738200063303</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.75893840792695</v>
+        <v>-20.66425790094227</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.262938166579139</v>
+        <v>-1.239881610194768</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.840669572601262</v>
+        <v>-2.976965306037116</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-11.17193121197839</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.54570437342645</v>
+        <v>-20.47271150090342</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.560957358165673</v>
+        <v>-1.537426568115212</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.699621724490765</v>
+        <v>-2.835448113267396</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.95714696959798</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.01424488195847</v>
+        <v>-19.93050108333508</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.396711172471665</v>
+        <v>-1.352592774504625</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.367751049357712</v>
+        <v>-2.498385312841679</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.71410607271085</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.54000143785398</v>
+        <v>-19.42486043713127</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.466726639812755</v>
+        <v>-1.4367668057323</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.005118743018029</v>
+        <v>-2.155406814106995</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.44169216315721</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.19641181326093</v>
+        <v>-19.06574821573576</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.585627286816126</v>
+        <v>-1.537123449689463</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.819698268583413</v>
+        <v>-1.963747966910195</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.13006397600345</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.78381385674138</v>
+        <v>-18.64277089763775</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.531134416277492</v>
+        <v>-1.490937001817717</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.84799095132225</v>
+        <v>-1.985719163770111</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.786676670759446</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.48438174217031</v>
+        <v>-18.35128341922541</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.580435161523462</v>
+        <v>-1.54934596685675</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.549521971103959</v>
+        <v>-1.689973360376692</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.406511670158119</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.00130386265731</v>
+        <v>-17.8343833902071</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.58780778387877</v>
+        <v>-1.569850461656592</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.595121738151675</v>
+        <v>-1.729271197572954</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.002044499647438</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.63053135988421</v>
+        <v>-17.44776072717146</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.686668391734657</v>
+        <v>-1.6612455560267</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.6691217460893</v>
+        <v>-1.784448529072956</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.572327816986135</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.23051281803323</v>
+        <v>-17.01464849783833</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.790579343684068</v>
+        <v>-1.755549609482622</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.583329453588676</v>
+        <v>-1.684639453884888</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.133446757918238</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.9641157228619</v>
+        <v>-16.76767053794239</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.761484863819057</v>
+        <v>-1.735152672833853</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.58852157888134</v>
+        <v>-1.702308324701918</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.689954355298258</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.56094866058863</v>
+        <v>-16.31619030981026</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.748607219731603</v>
+        <v>-1.714134832312985</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.798802653234219</v>
+        <v>-1.878737915508278</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.259851346304684</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.40292129162934</v>
+        <v>-16.15198323617119</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.601731675435744</v>
+        <v>-1.575981276267703</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.668359061018061</v>
+        <v>-1.768930821277368</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.850190445052844</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.99360385871748</v>
+        <v>-15.74542809213914</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.615313336512034</v>
+        <v>-1.591249644713078</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.563827205196552</v>
+        <v>-1.677745954202537</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.47555755448692</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.99610703023334</v>
+        <v>-15.76630904046774</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.663426053089344</v>
+        <v>-1.651364873148665</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.709920508393705</v>
+        <v>-1.836941795803022</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.141279403150108</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.6585602181278</v>
+        <v>-15.4380122293544</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.58302144615606</v>
+        <v>-1.58406769362558</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.568114864218837</v>
+        <v>-1.684267889363002</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.855771141902085</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.27642077438913</v>
+        <v>-15.08549527822236</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.508009413796984</v>
+        <v>-1.513504657515397</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.904742543033399</v>
+        <v>-2.045599719876085</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.617688938402967</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.23531400465211</v>
+        <v>-15.01121170788646</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.643224676715251</v>
+        <v>-1.634620024629481</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.781451567863537</v>
+        <v>-1.912467173883124</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.427437810123029</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.14091217105885</v>
+        <v>-14.92322425130259</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.687592414032504</v>
+        <v>-1.691943630144058</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.739401219801202</v>
+        <v>-1.899873092193951</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.280005009863215</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.73595573227228</v>
+        <v>-14.52933652406272</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.588609581004944</v>
+        <v>-1.586081964454749</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.065336640597821</v>
+        <v>-2.207626296452514</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.170316954698445</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.76671736347891</v>
+        <v>-14.56754411272766</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.657173013306559</v>
+        <v>-1.635539157920461</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.194137526506695</v>
+        <v>-2.356061433938918</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.091748356416113</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.62438370656241</v>
+        <v>-14.4403810441192</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.619420102280242</v>
+        <v>-1.610209213342974</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.062378791443337</v>
+        <v>-2.216607402067036</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.036443789096807</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.61659551862342</v>
+        <v>-14.43440667772783</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.686438608411912</v>
+        <v>-1.66682391286185</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.333728450570851</v>
+        <v>-2.501993399909463</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.997386569126619</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.37337720500813</v>
+        <v>-14.20379711282232</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.629877687968573</v>
+        <v>-1.617254272238199</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.598913072039184</v>
+        <v>-2.779982330362246</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.965976366639154</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.44487893043677</v>
+        <v>-14.27456059821405</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.732233935734305</v>
+        <v>-1.715982876908679</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.741349398099885</v>
+        <v>-2.928676585212598</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.938557016141239</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.52513686716404</v>
+        <v>-14.38185474291537</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.768001909972654</v>
+        <v>-1.73614025222097</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.953126508554039</v>
+        <v>-3.162175553176456</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.909495254125624</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.55811810748825</v>
+        <v>-14.4062019971126</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.040138699205741</v>
+        <v>-1.999506163134811</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.011481694517536</v>
+        <v>-3.215587953197501</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.878567429801962</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.5958221284459</v>
+        <v>-14.4331697589905</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.93312322789584</v>
+        <v>-1.910834245589575</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.424089429050823</v>
+        <v>-3.611778402671688</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.843845902816499</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.76889786054155</v>
+        <v>-14.58461163570006</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.165087047703486</v>
+        <v>-2.127363470718371</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.544451889107402</v>
+        <v>-3.730136369912832</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.807446076288801</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.86386681893138</v>
+        <v>-14.70651902192659</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.246831242518304</v>
+        <v>-2.201368367662862</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.45369725463686</v>
+        <v>-3.646162787966701</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.768728262272149</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.06828597405082</v>
+        <v>-14.88485043640418</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.243413826718331</v>
+        <v>-2.220029706873877</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.599531440470066</v>
+        <v>-3.803060796339735</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.730093471345316</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.08778333343608</v>
+        <v>-14.90222107780232</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.343530909339015</v>
+        <v>-2.32149615538983</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.47956010096284</v>
+        <v>-3.68337301923079</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.690062490662136</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.25443979951548</v>
+        <v>-15.06730817267744</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.398366010358333</v>
+        <v>-2.384984798563587</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.661426267405209</v>
+        <v>-3.868720158562403</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.649183061764765</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.57295859689499</v>
+        <v>-15.38768479266638</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.543711295504848</v>
+        <v>-2.52234633549643</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.753153814242268</v>
+        <v>-3.958555659741965</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.603312446203922</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.54777532252351</v>
+        <v>-15.3887163731153</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.614445446855373</v>
+        <v>-2.600687781531875</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.571742325438521</v>
+        <v>-3.779197553822323</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.551110694307827</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.93586468761922</v>
+        <v>-15.77078248175097</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.807165208542294</v>
+        <v>-2.794864467265135</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.507466552159191</v>
+        <v>-3.7137533079018</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.486526942207609</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.01075938381349</v>
+        <v>-15.83710185990067</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.017055162345819</v>
+        <v>-2.995318637815515</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.440951613734813</v>
+        <v>-3.599125652900112</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.407204196598657</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.39795406065255</v>
+        <v>-16.25172386526312</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.044208706484665</v>
+        <v>-3.054201836520639</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.427677960091139</v>
+        <v>-3.616652742518002</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.306479669047117</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.80678748188458</v>
+        <v>-16.6543726928085</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.126407578938106</v>
+        <v>-3.124295527971598</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.24016987972435</v>
+        <v>-3.414101188021716</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.184875553462367</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.38135334689816</v>
+        <v>-17.23545560397568</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.375209138395407</v>
+        <v>-3.348060483263429</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.111095209430928</v>
+        <v>-3.273410237412504</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.040340565167789</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.89653733450618</v>
+        <v>-17.75660906896821</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.346535113120952</v>
+        <v>-3.323126548242163</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.978079999602773</v>
+        <v>-3.126652029281451</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.880205277851087</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.46314878534729</v>
+        <v>-18.31911864304798</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.447664220163087</v>
+        <v>-3.444491254706459</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.754520382599353</v>
+        <v>-2.89531400235277</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.710060352962754</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.12233358121344</v>
+        <v>-18.95739315654433</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.599022983755907</v>
+        <v>-3.59843141392501</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.486343688928468</v>
+        <v>-2.61739840700299</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.542053783986104</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.96879667412362</v>
+        <v>-19.79670363240822</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.622363102538559</v>
+        <v>-3.621497748323115</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.400683399613251</v>
+        <v>-2.520136504392584</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.38783269370491</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.62945306105671</v>
+        <v>-20.44651131310362</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.598152740533596</v>
+        <v>-3.566907097647142</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.134760538108013</v>
+        <v>-2.257019932828955</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.263051008393309</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.61995118527307</v>
+        <v>-21.45079154767782</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.523326490435463</v>
+        <v>-3.48769051938252</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.982008407558122</v>
+        <v>-2.096606728518609</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.183364039861625</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.4087191081468</v>
+        <v>-22.24029282158158</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.431315381200124</v>
+        <v>-3.434718129979496</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.562248055978539</v>
+        <v>-1.654308055282547</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.163465872208769</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.86255819115443</v>
+        <v>-23.70778201176164</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.380665270058885</v>
+        <v>-3.369073434777429</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.321581803947784</v>
+        <v>-1.397757419941185</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.219212246064957</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.91331332500553</v>
+        <v>-24.76598799207791</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.213700796546872</v>
+        <v>-3.217871119404351</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.148779856236675</v>
+        <v>-1.237989564537272</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.358914913304134</v>
       </c>
       <c r="E88" t="n">
-        <v>-26.34965465243647</v>
+        <v>-26.203976914823</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.110352080387157</v>
+        <v>-3.115935326229174</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9451184971815987</v>
+        <v>-1.028119166761214</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.595182411660434</v>
       </c>
       <c r="E89" t="n">
-        <v>-27.73281091866567</v>
+        <v>-27.59508026171438</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.128157843396461</v>
+        <v>-3.108396477640391</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7614825102534063</v>
+        <v>-0.797998502542394</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.92803461634344</v>
       </c>
       <c r="E90" t="n">
-        <v>-29.45006235815238</v>
+        <v>-29.30419883827798</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.151590853309585</v>
+        <v>-3.130846797173265</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.9227708467929304</v>
+        <v>-0.9320452928194681</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.366980389075598</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.99630367094471</v>
+        <v>-30.85272331727715</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.235740439502925</v>
+        <v>-3.172007345985822</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7953779948617277</v>
+        <v>-0.8317228719103734</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.903274166511425</v>
       </c>
       <c r="E92" t="n">
-        <v>-32.73180821756904</v>
+        <v>-32.59738008475635</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.048926598111238</v>
+        <v>-3.00513576360428</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.183301133723961</v>
+        <v>-1.227942655425762</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.542400113853632</v>
       </c>
       <c r="E93" t="n">
-        <v>-34.77287569337556</v>
+        <v>-34.61368229627851</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.03664052385468</v>
+        <v>-2.96409255095653</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.112239418913352</v>
+        <v>-1.147337599210935</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.266883059417092</v>
       </c>
       <c r="E94" t="n">
-        <v>-36.87344482725587</v>
+        <v>-36.71971000632573</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.200578702116073</v>
+        <v>-3.118311383566494</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.161080597513833</v>
+        <v>-1.233413454109839</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.072496097502205</v>
       </c>
       <c r="E95" t="n">
-        <v>-39.02414828205296</v>
+        <v>-38.82905490753215</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.231203441130428</v>
+        <v>-3.136390930960346</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.581178290567233</v>
+        <v>-1.641821531744446</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.940924138227452</v>
       </c>
       <c r="E96" t="n">
-        <v>-40.95586334126719</v>
+        <v>-40.77733147750806</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.297928606850083</v>
+        <v>-3.18359429226041</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.914285884437616</v>
+        <v>-2.022464939381844</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.851621971884446</v>
       </c>
       <c r="E97" t="n">
-        <v>-43.1286406620684</v>
+        <v>-42.93722382071151</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.19882354865085</v>
+        <v>-3.08801909701909</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.18287814369219</v>
+        <v>-2.324351335400108</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.797722826898674</v>
       </c>
       <c r="E98" t="n">
-        <v>-45.36452039450088</v>
+        <v>-45.1779852265006</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.235608436317518</v>
+        <v>-3.085882601018248</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.545745122361484</v>
+        <v>-2.710054865144762</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-10.73707287144045</v>
       </c>
       <c r="E99" t="n">
-        <v>-47.48198838061668</v>
+        <v>-47.32086627031062</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.022843746476247</v>
+        <v>-2.865447059402787</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.920086600147428</v>
+        <v>-3.098980250414713</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.69793128072944</v>
       </c>
       <c r="E100" t="n">
-        <v>-49.98389119919516</v>
+        <v>-49.79824216368952</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.049234605543854</v>
+        <v>-2.891505466003443</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.605202688435687</v>
+        <v>-3.859704829899812</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.59545731533196</v>
       </c>
       <c r="E101" t="n">
-        <v>-52.1929461732006</v>
+        <v>-52.03365621821793</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.020643693386135</v>
+        <v>-2.827630591287199</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.984560287267086</v>
+        <v>-4.204951827820745</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-13.55107817795948</v>
       </c>
       <c r="E102" t="n">
-        <v>-54.44558542117286</v>
+        <v>-54.25492393137691</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.959477328474162</v>
+        <v>-2.764772629999274</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.621387654730826</v>
+        <v>-4.872462602381243</v>
       </c>
     </row>
   </sheetData>
